--- a/pesantren/hadits/ujian.xlsx
+++ b/pesantren/hadits/ujian.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD679AC7-0BB1-4FDC-938B-5A12DCD1AE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB0CAB3-BEBB-47F5-A6B3-3CAB140A2B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -130,16 +133,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,313 +439,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
         <f>A26+1</f>
         <v>22</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <f t="shared" ref="A7:A21" si="0">A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6">
-        <f>C6+1</f>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:C15" si="1">C6+1</f>
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6">
-        <f>C7+1</f>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6">
-        <f>C8+1</f>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6">
-        <f>C9+1</f>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6">
-        <f>C10+1</f>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6">
-        <f>C11+1</f>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6">
-        <f>C12+1</f>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6">
-        <f>C13+1</f>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6">
-        <f>C14+1</f>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6">
-        <f t="shared" ref="C16:C26" si="1">C15+1</f>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:C26" si="2">C15+1</f>
         <v>32</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6">
-        <f t="shared" si="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6">
-        <f t="shared" si="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6">
-        <f t="shared" si="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6">
-        <f t="shared" si="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6">
-        <f t="shared" si="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <f t="shared" ref="A22:A26" si="2">A21+1</f>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" ref="A22:A26" si="3">A21+1</f>
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6">
-        <f t="shared" si="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <f t="shared" si="2"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6">
-        <f t="shared" si="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <f t="shared" si="2"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6">
-        <f t="shared" si="1"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <f t="shared" si="2"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6">
-        <f t="shared" si="1"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <f t="shared" si="2"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6">
-        <f t="shared" si="1"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -735,7 +759,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>